--- a/src/test/resources/testdata/HRM.xlsx
+++ b/src/test/resources/testdata/HRM.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12765" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="13035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Job Title" sheetId="4" r:id="rId2"/>
-    <sheet name="Job Category" sheetId="5" r:id="rId3"/>
-    <sheet name="User Management" sheetId="2" r:id="rId4"/>
-    <sheet name="Employee" sheetId="3" r:id="rId5"/>
+    <sheet name="E2E" sheetId="6" r:id="rId2"/>
+    <sheet name="Job Title" sheetId="4" r:id="rId3"/>
+    <sheet name="Job Category" sheetId="5" r:id="rId4"/>
+    <sheet name="User Management" sheetId="2" r:id="rId5"/>
+    <sheet name="Employee" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -47,15 +48,72 @@
     <t>TC03</t>
   </si>
   <si>
+    <t>Username_login</t>
+  </si>
+  <si>
+    <t>Password_login</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Middle name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Driver number</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Trump</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>QA Engineer 6</t>
+  </si>
+  <si>
+    <t>Putin</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Vladmir</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>Title updated</t>
   </si>
   <si>
-    <t>QA Engineer 6</t>
-  </si>
-  <si>
     <t>QA Engineer 8</t>
   </si>
   <si>
@@ -71,12 +129,6 @@
     <t>BA Engineer 5</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
     <t>Role</t>
   </si>
   <si>
@@ -131,24 +183,6 @@
     <t>China@2003</t>
   </si>
   <si>
-    <t>First name</t>
-  </si>
-  <si>
-    <t>Middle name</t>
-  </si>
-  <si>
-    <t>Last name</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Driver number</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
     <t>FPT</t>
   </si>
   <si>
@@ -156,12 +190,6 @@
   </si>
   <si>
     <t>Soft1</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Male</t>
   </si>
   <si>
     <t>Town1</t>
@@ -187,10 +215,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -209,6 +237,142 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -216,142 +380,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -368,6 +396,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -380,19 +528,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,151 +540,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,32 +590,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,8 +602,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,11 +647,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,7 +690,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,145 +705,142 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1133,7 +1164,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1172,7 +1203,7 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1190,10 +1221,144 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="13.5333333333333" customWidth="1"/>
+    <col min="2" max="2" width="15.4857142857143" customWidth="1"/>
+    <col min="3" max="3" width="18.3428571428571" customWidth="1"/>
+    <col min="4" max="4" width="12.1714285714286" customWidth="1"/>
+    <col min="5" max="5" width="16.847619047619" customWidth="1"/>
+    <col min="6" max="6" width="10.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="9.84761904761905" customWidth="1"/>
+    <col min="8" max="8" width="13.3047619047619" customWidth="1"/>
+    <col min="10" max="10" width="14.647619047619" customWidth="1"/>
+    <col min="11" max="11" width="13.3714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1208,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1219,10 +1384,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1230,10 +1395,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1241,44 +1406,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="19.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="13.6666666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1290,10 +1421,76 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="12.7619047619048" customWidth="1"/>
+    <col min="2" max="2" width="19.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="13.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -1311,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1326,10 +1523,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1340,22 +1537,22 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1366,22 +1563,22 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1392,48 +1589,48 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1442,13 +1639,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1466,22 +1663,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1489,22 +1686,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F2">
         <v>12345</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1512,22 +1709,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="F3">
         <v>654321</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1535,22 +1732,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="F4">
         <v>10001</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/HRM.xlsx
+++ b/src/test/resources/testdata/HRM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="65">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -99,6 +99,9 @@
     <t>QA Engineer 6</t>
   </si>
   <si>
+    <t>BA Engineer 4</t>
+  </si>
+  <si>
     <t>Putin</t>
   </si>
   <si>
@@ -111,6 +114,12 @@
     <t>11</t>
   </si>
   <si>
+    <t>Mickey</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
     <t>Title updated</t>
   </si>
   <si>
@@ -121,9 +130,6 @@
   </si>
   <si>
     <t>AA Engineer 8</t>
-  </si>
-  <si>
-    <t>BA Engineer 4</t>
   </si>
   <si>
     <t>BA Engineer 5</t>
@@ -215,10 +221,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -245,20 +251,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -274,7 +266,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,6 +325,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -295,91 +386,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -396,12 +402,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -414,169 +570,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,24 +605,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -628,6 +616,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,159 +687,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1221,13 +1227,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="13.5333333333333" customWidth="1"/>
     <col min="2" max="2" width="15.4857142857143" customWidth="1"/>
@@ -1308,7 +1314,7 @@
         <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1322,16 +1328,16 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>23</v>
@@ -1343,7 +1349,42 @@
         <v>25</v>
       </c>
       <c r="K3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
         <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +1417,7 @@
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1387,7 +1428,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1395,10 +1436,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1406,10 +1447,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1424,7 +1465,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1442,7 +1483,7 @@
         <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1453,7 +1494,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1461,10 +1502,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1472,10 +1513,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1508,13 +1549,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1523,10 +1564,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1537,22 +1578,22 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1563,22 +1604,22 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
         <v>47</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1589,48 +1630,48 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1686,16 +1727,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>12345</v>
@@ -1709,22 +1750,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F3">
         <v>654321</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1732,22 +1773,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F4">
         <v>10001</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/HRM.xlsx
+++ b/src/test/resources/testdata/HRM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13035" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13035"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="79">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -48,6 +48,51 @@
     <t>TC03</t>
   </si>
   <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>long12</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>long68</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>long69</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>long70</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>long71</t>
+  </si>
+  <si>
+    <t>TC09</t>
+  </si>
+  <si>
+    <t>long72</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>long73</t>
+  </si>
+  <si>
     <t>Username_login</t>
   </si>
   <si>
@@ -178,9 +223,6 @@
   </si>
   <si>
     <t>China@2002</t>
-  </si>
-  <si>
-    <t>TC04</t>
   </si>
   <si>
     <t>longqa5</t>
@@ -221,10 +263,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -243,8 +285,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,6 +295,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,22 +317,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +360,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -304,24 +407,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -340,52 +428,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -402,25 +444,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,55 +594,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,97 +618,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,11 +638,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,35 +670,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,6 +688,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,148 +738,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1167,13 +1209,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="13.8857142857143" customWidth="1"/>
     <col min="2" max="2" width="11.6666666666667" customWidth="1"/>
@@ -1213,9 +1255,92 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1229,8 +1354,8 @@
   <sheetPr/>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -1252,34 +1377,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1293,28 +1418,28 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1328,28 +1453,28 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1363,28 +1488,28 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1414,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1425,10 +1550,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1436,10 +1561,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1447,10 +1572,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1480,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1491,10 +1616,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1502,10 +1627,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1513,10 +1638,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1549,13 +1674,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1564,10 +1689,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1578,22 +1703,22 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1604,22 +1729,22 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1630,48 +1755,48 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1704,22 +1829,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1727,22 +1852,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F2">
         <v>12345</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1750,22 +1875,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F3">
         <v>654321</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1773,22 +1898,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F4">
         <v>10001</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
